--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/screen_authorization.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/screen_authorization.xlsx
@@ -76,7 +76,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -158,7 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -169,6 +169,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -191,7 +199,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="E:E D:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -209,21 +217,21 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -236,13 +244,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -255,13 +263,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -274,13 +282,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -293,13 +301,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -312,13 +320,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="n">
@@ -331,13 +339,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -350,13 +358,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="n">
@@ -369,13 +377,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="n">
@@ -388,13 +396,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="n">
@@ -407,13 +415,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -426,13 +434,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="n">
@@ -445,13 +453,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="n">
@@ -464,13 +472,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="n">
@@ -483,13 +491,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="n">
@@ -502,13 +510,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="n">
@@ -521,13 +529,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="n">
@@ -540,13 +548,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="n">

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/screen_authorization.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/screen_authorization.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">REGISTRATION_SUPERVISOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">REGISTRATION_ADMIN</t>
@@ -199,7 +202,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="E:E D:D"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -234,13 +237,11 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,15 +252,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -267,18 +266,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,18 +283,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,18 +300,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,18 +317,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,18 +334,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,18 +351,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,18 +368,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,18 +385,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -419,18 +402,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,18 +419,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,18 +436,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,18 +453,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,18 +470,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,18 +487,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,18 +504,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,18 +521,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
